--- a/data/trans_dic/Q23_tabaco_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q23_tabaco_R2-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4137040194102397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3629990709936449</v>
+        <v>0.362999070993645</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4325146833376272</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3395688079215696</v>
+        <v>0.3442644670338478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3523552958306047</v>
+        <v>0.3549012669513316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3371397708952217</v>
+        <v>0.3251500820587494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2161931383514043</v>
+        <v>0.2293300690991527</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3594325818342732</v>
+        <v>0.3629357514234802</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4534963314123314</v>
+        <v>0.4524142087088058</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3999285978818147</v>
+        <v>0.3890308171273777</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1753890600583555</v>
+        <v>0.1842160967614871</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3746456356831012</v>
+        <v>0.3753975531087025</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4319081403206927</v>
+        <v>0.4252316559486478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3849297307609882</v>
+        <v>0.3836759448858509</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2404562806219364</v>
+        <v>0.2351125572945184</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4940809398075967</v>
+        <v>0.4932118828483661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5110068388216857</v>
+        <v>0.5160100021361578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4989522299339293</v>
+        <v>0.4997635575881678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5364194852512498</v>
+        <v>0.5389380664008562</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5178120675560333</v>
+        <v>0.5112875943133318</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6124616905086555</v>
+        <v>0.6173796705321841</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5760560847771485</v>
+        <v>0.578827855177241</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4595664378960942</v>
+        <v>0.4682249128683026</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4825653195482985</v>
+        <v>0.4812655443717824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5410760229869466</v>
+        <v>0.5416525212575454</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5109150841692633</v>
+        <v>0.5070405649771917</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4399447062467379</v>
+        <v>0.4442256519556391</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.24365239193923</v>
+        <v>0.2453024152236762</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2387311001410888</v>
+        <v>0.2406148543444731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2647507036179553</v>
+        <v>0.2631505814070942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2083335814731351</v>
+        <v>0.2140117883250277</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2091012692775804</v>
+        <v>0.2110256688618994</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.202920585538142</v>
+        <v>0.2066100300479063</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2652373905841935</v>
+        <v>0.2625193243174433</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1847599663255946</v>
+        <v>0.183124029121033</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2445833094083859</v>
+        <v>0.2440984266303265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2336123333988203</v>
+        <v>0.2328222508470412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2771643373696915</v>
+        <v>0.2772487921689515</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2146283870542075</v>
+        <v>0.2181983952050476</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3356572575673189</v>
+        <v>0.3416573758392536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3384664324618382</v>
+        <v>0.3308069520800204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3718852138114003</v>
+        <v>0.3677636528400227</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3665194668281652</v>
+        <v>0.3705727878619263</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3195791511667617</v>
+        <v>0.3193150484932597</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3039210221239932</v>
+        <v>0.302658236912478</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3780810174137618</v>
+        <v>0.3746703862569862</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3234464794136497</v>
+        <v>0.326118342530144</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3173506506787606</v>
+        <v>0.3148731502254934</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2978116869004611</v>
+        <v>0.3015756354841665</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.35405104842091</v>
+        <v>0.3544690116177711</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3267630213523275</v>
+        <v>0.3272635566910024</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2842061624761178</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2592965148161672</v>
+        <v>0.2592965148161673</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2377602370542311</v>
+        <v>0.2375231496469335</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.269953108441123</v>
+        <v>0.2665918011870027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.256288110812098</v>
+        <v>0.260367805074164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2423466519092125</v>
+        <v>0.2424713829027809</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.213424246469534</v>
+        <v>0.2138006079546443</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2225233595986573</v>
+        <v>0.222880154141615</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2091194849476287</v>
+        <v>0.2068520401022458</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1650047515451629</v>
+        <v>0.1641948026176006</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2410982486977466</v>
+        <v>0.2380806583135075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2607129409541931</v>
+        <v>0.2576127115484694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2522360066975599</v>
+        <v>0.2502667796286095</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2178302586704157</v>
+        <v>0.2201496564495112</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3327105069976238</v>
+        <v>0.333368188945204</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.368492120346892</v>
+        <v>0.3636708828865142</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3547208938648512</v>
+        <v>0.3593535242085502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3738003559440092</v>
+        <v>0.3728583937184119</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3178589884743698</v>
+        <v>0.315416009908436</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3214234589277152</v>
+        <v>0.3149844023499857</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3105748297011718</v>
+        <v>0.3122979018778526</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2636793077998722</v>
+        <v>0.263792387431322</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3087646028175913</v>
+        <v>0.3072128998521335</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3272068349536943</v>
+        <v>0.3251480706491657</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3202092906447879</v>
+        <v>0.3250922630745897</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2986195327080748</v>
+        <v>0.3086016404660716</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2984295690327177</v>
+        <v>0.2936129235534128</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3112190481792431</v>
+        <v>0.3119911643518535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2970631785455184</v>
+        <v>0.3040858027576087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2331160166197009</v>
+        <v>0.2348222583696798</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1324512350593263</v>
+        <v>0.1373250909008042</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2147397365356799</v>
+        <v>0.2134841666304985</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1501794492317438</v>
+        <v>0.1510726990009132</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1777955322759033</v>
+        <v>0.1797077715246332</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2445491115873875</v>
+        <v>0.2432775418469524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2815288613254002</v>
+        <v>0.278147689477041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2473690834249371</v>
+        <v>0.2438617682025628</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2212606490094507</v>
+        <v>0.2179107274400043</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4061980031082441</v>
+        <v>0.40444608908478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4048658086627566</v>
+        <v>0.4091312281504751</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4005855533055343</v>
+        <v>0.4032729737531773</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3381821528388096</v>
+        <v>0.3412200984443443</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2558033404384003</v>
+        <v>0.2501026132862019</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3178883084053954</v>
+        <v>0.3152272218783763</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2419189656950023</v>
+        <v>0.2412213867746716</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2622456358488987</v>
+        <v>0.2579113157862559</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3265290038799261</v>
+        <v>0.3280967653319828</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.352666615859511</v>
+        <v>0.3522910802869506</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3169845342944502</v>
+        <v>0.3156055984816741</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2897272011037179</v>
+        <v>0.2918887874433447</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.358199313606016</v>
+        <v>0.3726300617523318</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3304357604981862</v>
+        <v>0.3272166996088193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3304605905225984</v>
+        <v>0.332784359461448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3041312011778458</v>
+        <v>0.3062511750501189</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05408494754834153</v>
+        <v>0.05060214176202583</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07491191577865794</v>
+        <v>0.07801240683560966</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1487895723991661</v>
+        <v>0.1501528136839847</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2053696769280628</v>
+        <v>0.2083594283268125</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3089296504059558</v>
+        <v>0.3099396929639981</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2685609005685034</v>
+        <v>0.2673400781217649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2798874376372002</v>
+        <v>0.2703465119810293</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2805301974163164</v>
+        <v>0.2776624339624513</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4910441130895812</v>
+        <v>0.5030877763409926</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4508360048429105</v>
+        <v>0.4476351059872931</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4472530161446213</v>
+        <v>0.4551242874662935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4001568801906752</v>
+        <v>0.3996749800464111</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.246352428963251</v>
+        <v>0.2447874885286734</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2029858310295725</v>
+        <v>0.2042664288695238</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2842731627362319</v>
+        <v>0.2988768894671692</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2986888481470393</v>
+        <v>0.2997073243817261</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4184786583746983</v>
+        <v>0.4240616002932059</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3650887561157661</v>
+        <v>0.3643793844662564</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3700756879338085</v>
+        <v>0.3678390673375856</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.350400351180277</v>
+        <v>0.3503421015747399</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3255099597239345</v>
+        <v>0.3272848051191501</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3339289231746551</v>
+        <v>0.3340285947687953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3524922799613882</v>
+        <v>0.3489990183215857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3224344009783115</v>
+        <v>0.3182847322136856</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05725787082517098</v>
+        <v>0.0593865155710403</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01859905838078603</v>
+        <v>0.01839153423411072</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.174855400976725</v>
+        <v>0.176870242879974</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2876933609969788</v>
+        <v>0.2885801609544882</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3128992533265816</v>
+        <v>0.3129156133745736</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2894198008850747</v>
+        <v>0.275492161963916</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2946316222934592</v>
+        <v>0.2881641811267757</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.478061117227377</v>
+        <v>0.4816978845023912</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.478092124750904</v>
+        <v>0.477456605648462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5000894333894227</v>
+        <v>0.4995304559861107</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4298921027276031</v>
+        <v>0.4298485739351972</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2036594439686329</v>
+        <v>0.252120564503466</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3934070412595302</v>
+        <v>0.3755306195326926</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1640379519485584</v>
+        <v>0.1658462167524399</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2995561652423632</v>
+        <v>0.3090632660460332</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4332589979254721</v>
+        <v>0.4325902328358376</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4412826386686163</v>
+        <v>0.4482282880522263</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4051670948078104</v>
+        <v>0.4067905480655237</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3770949754383677</v>
+        <v>0.3743055034360954</v>
       </c>
     </row>
     <row r="22">
@@ -1524,36 +1524,36 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4306350825243226</v>
+        <v>0.4370910931287615</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3686682211509018</v>
+        <v>0.3780409465584553</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3648432750366141</v>
+        <v>0.3628418418240882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3572944608692811</v>
+        <v>0.3507628392225346</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08931828472613744</v>
+        <v>0.0920949199589198</v>
       </c>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.06163541247485426</v>
+        <v>0.05975021428053948</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4083365098739963</v>
+        <v>0.4165728148734587</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3519803939809364</v>
+        <v>0.3555168533179809</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3210225089933588</v>
+        <v>0.3300592526616378</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3237931726682494</v>
+        <v>0.3272445182891063</v>
       </c>
     </row>
     <row r="24">
@@ -1564,36 +1564,36 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6058657413739772</v>
+        <v>0.6097651642198383</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5411565853831747</v>
+        <v>0.5444287120822933</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.523319127315647</v>
+        <v>0.517316044783419</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4911295974530863</v>
+        <v>0.4962073355459851</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5945513783089393</v>
+        <v>0.6586941684757665</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.288509300245938</v>
+        <v>0.2737400059506919</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5751935639976051</v>
+        <v>0.5906233158482993</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5082584494406462</v>
+        <v>0.5065568434579014</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.484833384007013</v>
+        <v>0.488079290619452</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4444340481615279</v>
+        <v>0.445528229342917</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1617,7 @@
         <v>0.3618991790297297</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2628643810424137</v>
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
     </row>
     <row r="27">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="28">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>56841</v>
+        <v>57627</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53585</v>
+        <v>53973</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>50065</v>
+        <v>48284</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21138</v>
+        <v>22423</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>57656</v>
+        <v>58218</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>70323</v>
+        <v>70155</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>48603</v>
+        <v>47279</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15286</v>
+        <v>16055</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>122810</v>
+        <v>123056</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>132659</v>
+        <v>130609</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>103942</v>
+        <v>103603</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>44467</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="7">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>82706</v>
+        <v>82560</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>77713</v>
+        <v>78474</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>74093</v>
+        <v>74214</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>52448</v>
+        <v>52694</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83061</v>
+        <v>82015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>94973</v>
+        <v>95736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>70008</v>
+        <v>70344</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40054</v>
+        <v>40808</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>158186</v>
+        <v>157760</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>166190</v>
+        <v>166367</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>137961</v>
+        <v>136915</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>81359</v>
+        <v>82150</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>88736</v>
+        <v>89337</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>86959</v>
+        <v>87645</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>80391</v>
+        <v>79905</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39031</v>
+        <v>40095</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>54139</v>
+        <v>54637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>65582</v>
+        <v>66774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>69674</v>
+        <v>68960</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>28842</v>
+        <v>28587</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>152401</v>
+        <v>152098</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>160596</v>
+        <v>160053</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>156967</v>
+        <v>157015</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>73716</v>
+        <v>74942</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>122244</v>
+        <v>124429</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>123288</v>
+        <v>120498</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>112922</v>
+        <v>111670</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>68667</v>
+        <v>69427</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>82743</v>
+        <v>82674</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>98224</v>
+        <v>97816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>99317</v>
+        <v>98421</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50492</v>
+        <v>50909</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>197742</v>
+        <v>196198</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>204729</v>
+        <v>207317</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>200511</v>
+        <v>200747</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>112229</v>
+        <v>112401</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>88737</v>
+        <v>88648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>111753</v>
+        <v>110362</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>86176</v>
+        <v>87548</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51370</v>
+        <v>51396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63364</v>
+        <v>63476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>79766</v>
+        <v>79893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>63326</v>
+        <v>62639</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33124</v>
+        <v>32961</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>161563</v>
+        <v>159541</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>201383</v>
+        <v>198988</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>161196</v>
+        <v>159938</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>89901</v>
+        <v>90858</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>124174</v>
+        <v>124420</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>152546</v>
+        <v>150550</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>119274</v>
+        <v>120832</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79234</v>
+        <v>79034</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>94370</v>
+        <v>93645</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>115217</v>
+        <v>112909</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>94049</v>
+        <v>94570</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52932</v>
+        <v>52955</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>206907</v>
+        <v>205867</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>252745</v>
+        <v>251155</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>204636</v>
+        <v>207756</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>123244</v>
+        <v>127364</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>95005</v>
+        <v>93471</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>137732</v>
+        <v>138073</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>114480</v>
+        <v>117186</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71971</v>
+        <v>72498</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25111</v>
+        <v>26035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>69420</v>
+        <v>69014</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>47317</v>
+        <v>47598</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>46799</v>
+        <v>47303</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>124216</v>
+        <v>123570</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>215603</v>
+        <v>213014</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>173267</v>
+        <v>170810</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>126551</v>
+        <v>124635</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>129313</v>
+        <v>128755</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>179175</v>
+        <v>181063</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>154374</v>
+        <v>155410</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>104409</v>
+        <v>105347</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48497</v>
+        <v>47416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>102765</v>
+        <v>101905</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>76221</v>
+        <v>76001</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>69028</v>
+        <v>67887</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>165856</v>
+        <v>166652</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>270083</v>
+        <v>269795</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>222028</v>
+        <v>221062</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>165711</v>
+        <v>166948</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81363</v>
+        <v>84641</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>95743</v>
+        <v>94810</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>92517</v>
+        <v>93168</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>106933</v>
+        <v>107679</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3192</v>
+        <v>2986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8792</v>
+        <v>9156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26008</v>
+        <v>26247</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>46053</v>
+        <v>46723</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>88405</v>
+        <v>88694</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>109335</v>
+        <v>108838</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>127282</v>
+        <v>122943</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>161542</v>
+        <v>159891</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111538</v>
+        <v>114274</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>130628</v>
+        <v>129701</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>125215</v>
+        <v>127418</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>140696</v>
+        <v>140527</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14539</v>
+        <v>14447</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23824</v>
+        <v>23974</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>49691</v>
+        <v>52243</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>66979</v>
+        <v>67207</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>119754</v>
+        <v>121352</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>148632</v>
+        <v>148344</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>168296</v>
+        <v>167279</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>201777</v>
+        <v>201743</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>47056</v>
+        <v>47313</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>70767</v>
+        <v>70788</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>65050</v>
+        <v>64405</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>78116</v>
+        <v>77111</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1645</v>
+        <v>1706</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>17453</v>
+        <v>17654</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>46794</v>
+        <v>46938</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>75300</v>
+        <v>75304</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>69778</v>
+        <v>66420</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>100788</v>
+        <v>98576</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>69109</v>
+        <v>69635</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>101318</v>
+        <v>101183</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>92288</v>
+        <v>92184</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>104150</v>
+        <v>104139</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3684</v>
+        <v>4561</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11303</v>
+        <v>10790</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9277</v>
+        <v>9379</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>29900</v>
+        <v>30849</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>70471</v>
+        <v>70362</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>106196</v>
+        <v>107867</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>97684</v>
+        <v>98075</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>128997</v>
+        <v>128043</v>
       </c>
     </row>
     <row r="28">
@@ -3083,36 +3083,36 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>51614</v>
+        <v>52388</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>59461</v>
+        <v>60973</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>47637</v>
+        <v>47376</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>52435</v>
+        <v>51476</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>1518</v>
+        <v>1472</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>54604</v>
+        <v>55706</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>60443</v>
+        <v>61050</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>45461</v>
+        <v>46741</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>55494</v>
+        <v>56085</v>
       </c>
     </row>
     <row r="31">
@@ -3123,36 +3123,36 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>72616</v>
+        <v>73083</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>87282</v>
+        <v>87809</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>68329</v>
+        <v>67545</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>72076</v>
+        <v>72821</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>8246</v>
+        <v>9135</v>
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>7106</v>
+        <v>6742</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>76917</v>
+        <v>78981</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>87280</v>
+        <v>86987</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>68659</v>
+        <v>69119</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>76170</v>
+        <v>76357</v>
       </c>
     </row>
     <row r="32">
@@ -3255,40 +3255,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
     </row>
     <row r="35">
@@ -3299,40 +3299,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
     </row>
     <row r="36">
